--- a/03_Outputs/all/idx3_climatico_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx3_climatico_loadings_y_tops.xlsx
@@ -399,10 +399,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.646317968050291</v>
+        <v>0.64631796805029</v>
       </c>
       <c r="D2">
-        <v>0.3752487216349443</v>
+        <v>0.3752487216349437</v>
       </c>
       <c r="E2">
         <v>37.5</v>
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.57881145305181</v>
+        <v>-0.5788114530518104</v>
       </c>
       <c r="D3">
-        <v>0.3360548036140251</v>
+        <v>0.3360548036140253</v>
       </c>
       <c r="E3">
         <v>33.6</v>
@@ -441,10 +441,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.4972427837499459</v>
+        <v>-0.4972427837499467</v>
       </c>
       <c r="D4">
-        <v>0.2886964747510306</v>
+        <v>0.2886964747510311</v>
       </c>
       <c r="E4">
         <v>28.9</v>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.1131106451103469</v>
+        <v>0.113110645110351</v>
       </c>
       <c r="D5">
-        <v>0.07553506064930574</v>
+        <v>0.07553506064930832</v>
       </c>
       <c r="E5">
         <v>7.6</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.5717664519975221</v>
+        <v>-0.5717664519975196</v>
       </c>
       <c r="D6">
-        <v>0.381824483334332</v>
+        <v>0.3818244833343296</v>
       </c>
       <c r="E6">
         <v>38.2</v>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.8125817536302952</v>
+        <v>0.8125817536302965</v>
       </c>
       <c r="D7">
-        <v>0.5426404560163623</v>
+        <v>0.5426404560163621</v>
       </c>
       <c r="E7">
         <v>54.3</v>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.7546383677882168</v>
+        <v>0.7546383677882174</v>
       </c>
       <c r="D8">
-        <v>0.4601057315806913</v>
+        <v>0.4601057315806922</v>
       </c>
       <c r="E8">
         <v>46</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.5814296399274957</v>
+        <v>0.5814296399274979</v>
       </c>
       <c r="D9">
-        <v>0.3544997461838774</v>
+        <v>0.3544997461838791</v>
       </c>
       <c r="E9">
         <v>35.4</v>
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.3040731946024152</v>
+        <v>0.3040731946024107</v>
       </c>
       <c r="D10">
-        <v>0.1853945222354313</v>
+        <v>0.1853945222354288</v>
       </c>
       <c r="E10">
         <v>18.5</v>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.320139522931992</v>
+        <v>0.3201395229319919</v>
       </c>
     </row>
     <row r="4">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2981271905034744</v>
+        <v>0.2981271905034745</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.646317968050291</v>
+        <v>0.64631796805029</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.57881145305181</v>
+        <v>-0.5788114530518104</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.4972427837499459</v>
+        <v>-0.4972427837499467</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.8125817536302952</v>
+        <v>0.8125817536302965</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.5717664519975221</v>
+        <v>-0.5717664519975196</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1131106451103469</v>
+        <v>0.113110645110351</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
